--- a/TestData/TestDataSheet.xlsx
+++ b/TestData/TestDataSheet.xlsx
@@ -3,99 +3,43 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{37805E33-D7C4-43F7-B32F-E99CE93BF1A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QN271GF\JavaWorkspaceFinal-master\GuidewireScenario6\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DADE4690-D266-45F3-9260-8DE55CA95DA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="19460" windowHeight="11060" activeTab="3" xr2:uid="{3CB87269-64F4-408E-8CAD-C978C53BCC5F}"/>
+    <workbookView xWindow="1140" yWindow="0" windowWidth="14480" windowHeight="10200" activeTab="1" xr2:uid="{3CB87269-64F4-408E-8CAD-C978C53BCC5F}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="5" r:id="rId1"/>
-    <sheet name="Account" sheetId="1" r:id="rId2"/>
+    <sheet name="SearchHotel" sheetId="1" r:id="rId2"/>
     <sheet name="Policy Info" sheetId="2" r:id="rId3"/>
     <sheet name="Location" sheetId="3" r:id="rId4"/>
     <sheet name="Vehicles" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:J9"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
   <si>
     <t>TestCase Name</t>
   </si>
   <si>
-    <t>FirstName</t>
-  </si>
-  <si>
-    <t>LastName</t>
-  </si>
-  <si>
-    <t>EmailId</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>AddressLine1</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>ZipCode</t>
-  </si>
-  <si>
-    <t>Personal/Commercial</t>
-  </si>
-  <si>
-    <t>IndustryCode</t>
-  </si>
-  <si>
-    <t>Orgnization</t>
-  </si>
-  <si>
-    <t>Account#</t>
-  </si>
-  <si>
     <t>Submission#</t>
   </si>
   <si>
     <t>TC01</t>
   </si>
   <si>
-    <t>Anan</t>
-  </si>
-  <si>
-    <t>Hari</t>
-  </si>
-  <si>
-    <t>anan.hari@xyz.com</t>
-  </si>
-  <si>
-    <t>US</t>
-  </si>
-  <si>
-    <t>DE</t>
-  </si>
-  <si>
-    <t>Commercial</t>
-  </si>
-  <si>
     <t>Userid</t>
   </si>
   <si>
@@ -106,24 +50,94 @@
   </si>
   <si>
     <t>vasu1234</t>
+  </si>
+  <si>
+    <t>WebElementName</t>
+  </si>
+  <si>
+    <t>TCName</t>
+  </si>
+  <si>
+    <t>ValuetoBeSelected</t>
+  </si>
+  <si>
+    <t>DefaultValidation</t>
+  </si>
+  <si>
+    <t>DateField</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>WebListBox</t>
+  </si>
+  <si>
+    <t>Sydney</t>
+  </si>
+  <si>
+    <t>Select Location</t>
+  </si>
+  <si>
+    <t>Mandatory Field</t>
+  </si>
+  <si>
+    <t>WebObjectType</t>
+  </si>
+  <si>
+    <t>Room Type</t>
+  </si>
+  <si>
+    <t>Number of Rooms</t>
+  </si>
+  <si>
+    <t>Check In Date</t>
+  </si>
+  <si>
+    <t>Check Out Date</t>
+  </si>
+  <si>
+    <t>Adults per Room</t>
+  </si>
+  <si>
+    <t>Children per Room</t>
+  </si>
+  <si>
+    <t>WebTextBox</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>WebButton</t>
+  </si>
+  <si>
+    <t>Hotel Creek</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>1 - One</t>
+  </si>
+  <si>
+    <t>0 - None</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Hotels</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -146,16 +160,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -471,25 +483,29 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.54296875" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -500,87 +516,183 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC941677-A941-48EB-B661-E44509A7B578}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.453125" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" customWidth="1"/>
-    <col min="12" max="12" width="10.08984375" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" customWidth="1"/>
+    <col min="7" max="7" width="10.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="b">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="I2" t="s">
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
         <v>19</v>
       </c>
-      <c r="J2">
-        <v>11010</v>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="1">
+        <v>44903</v>
+      </c>
+      <c r="F6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="1">
+        <v>44904</v>
+      </c>
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{C7D5D561-6966-4CB6-A473-D5B2E7D94A8F}"/>
+    <hyperlink ref="E2" r:id="rId1" display="anan.hari@xyz.com" xr:uid="{C7D5D561-6966-4CB6-A473-D5B2E7D94A8F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId2"/>
@@ -606,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -619,7 +731,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{839C3E40-46B8-425F-9CA9-E10034A259BD}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
